--- a/biology/Botanique/Donald_McGillivray_(botaniste)/Donald_McGillivray_(botaniste).xlsx
+++ b/biology/Botanique/Donald_McGillivray_(botaniste)/Donald_McGillivray_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donald John McGillivray (né le 20 août 1935 en Nouvelle-Galles du Sud, en Australie - mort le 17 août 2012) est un taxinomiste botanique[1]. Il a été formé à la sylviculture et s'est intéressé à la taxinomie des plantes juste avant d'être affecté en 1964 à l'Herbier national des Jardins botaniques royaux de Sydney, en Nouvelle-Galles du Sud.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donald John McGillivray (né le 20 août 1935 en Nouvelle-Galles du Sud, en Australie - mort le 17 août 2012) est un taxinomiste botanique. Il a été formé à la sylviculture et s'est intéressé à la taxinomie des plantes juste avant d'être affecté en 1964 à l'Herbier national des Jardins botaniques royaux de Sydney, en Nouvelle-Galles du Sud.
 De 1969 à 1970, il fut correspondant pour l'Australie des Jardins botaniques royaux de Kew à Londres.
 D.J. McGillivray est spécialisé dans le genre Grevillea et en 1993, il a publié Grevillea - Proteaceae: A Taxonomic Revision, une enquête scientifique exhaustive de ce genre végétal prolifique australien.
 </t>
